--- a/credentials.xlsx
+++ b/credentials.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>raman</t>
+          <t>qwerty</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sanam</t>
+          <t>aaaaa</t>
         </is>
       </c>
     </row>
